--- a/Schedule_Info.xlsx
+++ b/Schedule_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khale\Desktop\Quran Send System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15923AFB-05ED-4550-B480-87B7E63BDD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9C1685-3956-4CBC-9328-AAC654ABAE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="512">
   <si>
     <t>Date</t>
   </si>
@@ -655,24 +655,6 @@
     <t>Grade1_(103).png</t>
   </si>
   <si>
-    <t>22,03,2023</t>
-  </si>
-  <si>
-    <t>Grade1_(104).png</t>
-  </si>
-  <si>
-    <t>23,03,2023</t>
-  </si>
-  <si>
-    <t>Grade1_(105).png</t>
-  </si>
-  <si>
-    <t>24,03,2023</t>
-  </si>
-  <si>
-    <t>Grade1_(106).png</t>
-  </si>
-  <si>
     <t>Grade2_(1).png</t>
   </si>
   <si>
@@ -1529,6 +1511,54 @@
   </si>
   <si>
     <t>Grade4_(94).png</t>
+  </si>
+  <si>
+    <t>Grade2_(98).png</t>
+  </si>
+  <si>
+    <t>Grade2_(99).png</t>
+  </si>
+  <si>
+    <t>Grade2_(100).png</t>
+  </si>
+  <si>
+    <t>Grade2_(101).png</t>
+  </si>
+  <si>
+    <t>Grade3_(96).png</t>
+  </si>
+  <si>
+    <t>Grade3_(97).png</t>
+  </si>
+  <si>
+    <t>Grade3_(98).png</t>
+  </si>
+  <si>
+    <t>Grade3_(99).png</t>
+  </si>
+  <si>
+    <t>Grade3_(100).png</t>
+  </si>
+  <si>
+    <t>Grade4_(95).png</t>
+  </si>
+  <si>
+    <t>Grade4_(96).png</t>
+  </si>
+  <si>
+    <t>Grade4_(97).png</t>
+  </si>
+  <si>
+    <t>Grade4_(98).png</t>
+  </si>
+  <si>
+    <t>Grade4_(99).png</t>
+  </si>
+  <si>
+    <t>Grade4_(100).png</t>
+  </si>
+  <si>
+    <t>Grade4_(101).png</t>
   </si>
 </sst>
 </file>
@@ -1863,11 +1893,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1875,8 +1903,8 @@
     <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="40" width="9.140625" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="41" width="9.140625" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,7 +1957,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>7488</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3032,52 +3063,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3085,8 +3081,8 @@
     <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="40" width="9.140625" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="41" width="9.140625" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3108,7 +3104,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -3122,7 +3118,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -3136,10 +3132,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3461</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3147,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3158,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3169,7 +3168,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -3180,7 +3179,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -3191,7 +3190,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -3202,7 +3201,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -3213,7 +3212,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -3224,7 +3223,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -3235,7 +3234,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -3246,7 +3245,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -3257,7 +3256,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -3268,7 +3267,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -3279,7 +3278,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -3290,7 +3289,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -3301,7 +3300,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -3312,7 +3311,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -3323,7 +3322,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -3334,7 +3333,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -3345,7 +3344,7 @@
         <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -3356,7 +3355,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -3367,7 +3366,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -3378,7 +3377,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -3389,7 +3388,7 @@
         <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -3400,7 +3399,7 @@
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -3411,7 +3410,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -3422,7 +3421,7 @@
         <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -3433,7 +3432,7 @@
         <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -3444,7 +3443,7 @@
         <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -3455,7 +3454,7 @@
         <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -3466,7 +3465,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -3477,7 +3476,7 @@
         <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -3488,7 +3487,7 @@
         <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -3499,7 +3498,7 @@
         <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -3510,7 +3509,7 @@
         <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -3521,7 +3520,7 @@
         <v>78</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -3532,7 +3531,7 @@
         <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -3543,7 +3542,7 @@
         <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -3554,7 +3553,7 @@
         <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -3565,7 +3564,7 @@
         <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -3576,7 +3575,7 @@
         <v>88</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -3587,7 +3586,7 @@
         <v>90</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -3598,7 +3597,7 @@
         <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -3609,7 +3608,7 @@
         <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -3620,7 +3619,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -3631,7 +3630,7 @@
         <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -3642,7 +3641,7 @@
         <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -3653,7 +3652,7 @@
         <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -3664,7 +3663,7 @@
         <v>104</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -3675,7 +3674,7 @@
         <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -3686,7 +3685,7 @@
         <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -3697,7 +3696,7 @@
         <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -3708,7 +3707,7 @@
         <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -3719,7 +3718,7 @@
         <v>114</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -3730,7 +3729,7 @@
         <v>116</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -3741,7 +3740,7 @@
         <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -3752,7 +3751,7 @@
         <v>120</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -3763,7 +3762,7 @@
         <v>122</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -3774,7 +3773,7 @@
         <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -3785,7 +3784,7 @@
         <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -3796,7 +3795,7 @@
         <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -3807,7 +3806,7 @@
         <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -3818,7 +3817,7 @@
         <v>132</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -3829,7 +3828,7 @@
         <v>134</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -3840,7 +3839,7 @@
         <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -3851,7 +3850,7 @@
         <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -3862,7 +3861,7 @@
         <v>140</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -3873,7 +3872,7 @@
         <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -3884,7 +3883,7 @@
         <v>144</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -3895,7 +3894,7 @@
         <v>146</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -3906,7 +3905,7 @@
         <v>148</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -3917,7 +3916,7 @@
         <v>150</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -3928,7 +3927,7 @@
         <v>152</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -3939,7 +3938,7 @@
         <v>154</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -3950,7 +3949,7 @@
         <v>156</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -3961,7 +3960,7 @@
         <v>158</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -3972,7 +3971,7 @@
         <v>160</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -3983,7 +3982,7 @@
         <v>162</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -3994,7 +3993,7 @@
         <v>164</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
@@ -4005,7 +4004,7 @@
         <v>166</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
@@ -4016,7 +4015,7 @@
         <v>168</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -4027,7 +4026,7 @@
         <v>170</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -4038,7 +4037,7 @@
         <v>172</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -4049,7 +4048,7 @@
         <v>174</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -4060,7 +4059,7 @@
         <v>176</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -4071,7 +4070,7 @@
         <v>178</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -4082,7 +4081,7 @@
         <v>180</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -4093,7 +4092,7 @@
         <v>182</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -4104,7 +4103,7 @@
         <v>184</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -4115,7 +4114,7 @@
         <v>186</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -4126,7 +4125,7 @@
         <v>188</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -4137,7 +4136,7 @@
         <v>190</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
@@ -4148,7 +4147,7 @@
         <v>192</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -4159,7 +4158,7 @@
         <v>194</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
@@ -4170,9 +4169,53 @@
         <v>196</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C102" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4184,11 +4227,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4196,8 +4237,8 @@
     <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="40" width="9.140625" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="41" width="9.140625" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4219,7 +4260,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -4233,7 +4274,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -4247,10 +4288,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2494</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4258,7 +4302,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4269,7 +4313,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4280,7 +4324,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4291,7 +4335,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -4302,7 +4346,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -4313,7 +4357,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -4324,7 +4368,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -4335,7 +4379,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -4346,7 +4390,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4357,7 +4401,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4368,7 +4412,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -4379,7 +4423,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -4390,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -4401,7 +4445,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -4412,7 +4456,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -4423,7 +4467,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -4434,7 +4478,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -4445,7 +4489,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -4456,7 +4500,7 @@
         <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -4467,7 +4511,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -4478,7 +4522,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -4489,7 +4533,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -4500,7 +4544,7 @@
         <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -4511,7 +4555,7 @@
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -4522,7 +4566,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -4533,7 +4577,7 @@
         <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -4544,7 +4588,7 @@
         <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -4555,7 +4599,7 @@
         <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -4566,7 +4610,7 @@
         <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -4577,7 +4621,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -4588,7 +4632,7 @@
         <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -4599,7 +4643,7 @@
         <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -4610,7 +4654,7 @@
         <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -4621,7 +4665,7 @@
         <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -4632,7 +4676,7 @@
         <v>78</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -4643,7 +4687,7 @@
         <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -4654,7 +4698,7 @@
         <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -4665,7 +4709,7 @@
         <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -4676,7 +4720,7 @@
         <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -4687,7 +4731,7 @@
         <v>88</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -4698,7 +4742,7 @@
         <v>90</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -4709,7 +4753,7 @@
         <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -4720,7 +4764,7 @@
         <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -4731,7 +4775,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -4742,7 +4786,7 @@
         <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -4753,7 +4797,7 @@
         <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -4764,7 +4808,7 @@
         <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -4775,7 +4819,7 @@
         <v>104</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -4786,7 +4830,7 @@
         <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -4797,7 +4841,7 @@
         <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -4808,7 +4852,7 @@
         <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -4819,7 +4863,7 @@
         <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -4830,7 +4874,7 @@
         <v>114</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -4841,7 +4885,7 @@
         <v>116</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -4852,7 +4896,7 @@
         <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -4863,7 +4907,7 @@
         <v>120</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -4874,7 +4918,7 @@
         <v>122</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -4885,7 +4929,7 @@
         <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -4896,7 +4940,7 @@
         <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -4907,7 +4951,7 @@
         <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -4918,7 +4962,7 @@
         <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -4929,7 +4973,7 @@
         <v>132</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -4940,7 +4984,7 @@
         <v>134</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -4951,7 +4995,7 @@
         <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -4962,7 +5006,7 @@
         <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -4973,7 +5017,7 @@
         <v>140</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -4984,7 +5028,7 @@
         <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -4995,7 +5039,7 @@
         <v>144</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -5006,7 +5050,7 @@
         <v>146</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -5017,7 +5061,7 @@
         <v>148</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -5028,7 +5072,7 @@
         <v>150</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -5039,7 +5083,7 @@
         <v>152</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -5050,7 +5094,7 @@
         <v>154</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -5061,7 +5105,7 @@
         <v>156</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -5072,7 +5116,7 @@
         <v>158</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -5083,7 +5127,7 @@
         <v>160</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -5094,7 +5138,7 @@
         <v>162</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -5105,7 +5149,7 @@
         <v>164</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
@@ -5116,7 +5160,7 @@
         <v>166</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
@@ -5127,7 +5171,7 @@
         <v>168</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -5138,7 +5182,7 @@
         <v>170</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -5149,7 +5193,7 @@
         <v>172</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -5160,7 +5204,7 @@
         <v>174</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -5171,7 +5215,7 @@
         <v>176</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -5182,7 +5226,7 @@
         <v>178</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -5193,7 +5237,7 @@
         <v>180</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -5204,7 +5248,7 @@
         <v>182</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -5215,7 +5259,7 @@
         <v>184</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -5226,7 +5270,7 @@
         <v>186</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -5237,7 +5281,7 @@
         <v>188</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -5248,7 +5292,7 @@
         <v>190</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
@@ -5259,9 +5303,64 @@
         <v>192</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C101" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5273,20 +5372,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="40" width="9.140625" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="41" width="9.140625" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5308,7 +5405,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5322,7 +5419,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -5336,10 +5433,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6226</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5347,7 +5447,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -5358,7 +5458,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5369,7 +5469,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -5380,7 +5480,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -5391,7 +5491,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -5402,7 +5502,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -5413,7 +5513,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -5424,7 +5524,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -5435,7 +5535,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -5446,7 +5546,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -5457,7 +5557,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -5468,7 +5568,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -5479,7 +5579,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -5490,7 +5590,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -5501,7 +5601,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -5512,7 +5612,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -5523,7 +5623,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -5534,7 +5634,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -5545,7 +5645,7 @@
         <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -5556,7 +5656,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -5567,7 +5667,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -5578,7 +5678,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -5589,7 +5689,7 @@
         <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -5600,7 +5700,7 @@
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -5611,7 +5711,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -5622,7 +5722,7 @@
         <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -5633,7 +5733,7 @@
         <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -5644,7 +5744,7 @@
         <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -5655,7 +5755,7 @@
         <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -5666,7 +5766,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -5677,7 +5777,7 @@
         <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -5688,7 +5788,7 @@
         <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -5699,7 +5799,7 @@
         <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -5710,7 +5810,7 @@
         <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -5721,7 +5821,7 @@
         <v>78</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -5732,7 +5832,7 @@
         <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -5743,7 +5843,7 @@
         <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -5754,7 +5854,7 @@
         <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -5765,7 +5865,7 @@
         <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -5776,7 +5876,7 @@
         <v>88</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -5787,7 +5887,7 @@
         <v>90</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -5798,7 +5898,7 @@
         <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -5809,7 +5909,7 @@
         <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -5820,7 +5920,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -5831,7 +5931,7 @@
         <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -5842,7 +5942,7 @@
         <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -5853,7 +5953,7 @@
         <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -5864,7 +5964,7 @@
         <v>104</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -5875,7 +5975,7 @@
         <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -5886,7 +5986,7 @@
         <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -5897,7 +5997,7 @@
         <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -5908,7 +6008,7 @@
         <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -5919,7 +6019,7 @@
         <v>114</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -5930,7 +6030,7 @@
         <v>116</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -5941,7 +6041,7 @@
         <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -5952,7 +6052,7 @@
         <v>120</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -5963,7 +6063,7 @@
         <v>122</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -5974,7 +6074,7 @@
         <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -5985,7 +6085,7 @@
         <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -5996,7 +6096,7 @@
         <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -6007,7 +6107,7 @@
         <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -6018,7 +6118,7 @@
         <v>132</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -6029,7 +6129,7 @@
         <v>134</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -6040,7 +6140,7 @@
         <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -6051,7 +6151,7 @@
         <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -6062,7 +6162,7 @@
         <v>140</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -6073,7 +6173,7 @@
         <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -6084,7 +6184,7 @@
         <v>144</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -6095,7 +6195,7 @@
         <v>146</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -6106,7 +6206,7 @@
         <v>148</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -6117,7 +6217,7 @@
         <v>150</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -6128,7 +6228,7 @@
         <v>152</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -6139,7 +6239,7 @@
         <v>154</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -6150,7 +6250,7 @@
         <v>156</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -6161,7 +6261,7 @@
         <v>158</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -6172,7 +6272,7 @@
         <v>160</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -6183,7 +6283,7 @@
         <v>162</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -6194,7 +6294,7 @@
         <v>164</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
@@ -6205,7 +6305,7 @@
         <v>166</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
@@ -6216,7 +6316,7 @@
         <v>168</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -6227,7 +6327,7 @@
         <v>170</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -6238,7 +6338,7 @@
         <v>172</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -6249,7 +6349,7 @@
         <v>174</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -6260,7 +6360,7 @@
         <v>176</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -6271,7 +6371,7 @@
         <v>178</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -6282,7 +6382,7 @@
         <v>180</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -6293,7 +6393,7 @@
         <v>182</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -6304,7 +6404,7 @@
         <v>184</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -6315,7 +6415,7 @@
         <v>186</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -6326,7 +6426,7 @@
         <v>188</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -6337,9 +6437,86 @@
         <v>190</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C102" s="1">
         <v>0</v>
       </c>
     </row>
